--- a/类信贷测算/类信贷测算0923.xlsx
+++ b/类信贷测算/类信贷测算0923.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="数据底稿" sheetId="1" r:id="rId1"/>
@@ -1408,7 +1408,7 @@
     <numFmt numFmtId="184" formatCode="0.0%"/>
     <numFmt numFmtId="185" formatCode="0.0000"/>
     <numFmt numFmtId="186" formatCode="###,###,##0.000"/>
-    <numFmt numFmtId="188" formatCode="0.00000_ "/>
+    <numFmt numFmtId="187" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1814,6 +1814,22 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1838,24 +1854,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2401,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2425,23 +2425,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="98">
+      <c r="A1" s="90">
         <f>[1]!s_stm07_bs(A3,"155",$A$11,1,100000000)</f>
         <v>3438.22</v>
       </c>
-      <c r="D1" s="98">
+      <c r="D1" s="90">
         <f>[1]!s_stm07_bs(D3,"155",$A$11,1,100000000)</f>
         <v>4739.99</v>
       </c>
-      <c r="G1" s="98">
+      <c r="G1" s="90">
         <f>[1]!s_stm07_bs(G3,"155",$A$11,1,100000000)</f>
         <v>6729.91</v>
       </c>
-      <c r="J1" s="98">
+      <c r="J1" s="90">
         <f>[1]!s_stm07_bs(J3,"155",$A$11,1,100000000)</f>
         <v>4159.6899999999996</v>
       </c>
-      <c r="M1" s="98">
+      <c r="M1" s="90">
         <f>[1]!s_stm07_bs(M3,"155",$A$11,1,100000000)</f>
         <v>4104.29</v>
       </c>
@@ -2583,7 +2583,7 @@
       <c r="M6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="103">
+      <c r="N6" s="94">
         <v>985.19</v>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       <c r="M7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="103">
+      <c r="N7" s="94">
         <v>150.49</v>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       <c r="M8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="N8" s="103">
+      <c r="N8" s="94">
         <v>208</v>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="99">
+      <c r="A11" s="91">
         <v>42916</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2800,7 +2800,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A18" s="98">
+      <c r="A18" s="90">
         <f>[1]!s_stm07_bs(A20,"155",$A$11,1,100000000)</f>
         <v>5823.7</v>
       </c>
@@ -2808,34 +2808,34 @@
         <f>SUM(B23:B26)+B28</f>
         <v>429.91999999999996</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="90">
         <f>[1]!s_stm07_bs(D20,"155",$A$11,1,100000000)</f>
         <v>8413.59</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="90">
         <f>[1]!s_stm07_bs(G20,"155",$A$11,1,100000000)</f>
         <v>7827.04</v>
       </c>
-      <c r="J18" s="98">
+      <c r="J18" s="90">
         <f>[1]!s_stm07_bs(J20,"155",$A$11,1,100000000)</f>
         <v>10194.040000000001</v>
       </c>
-      <c r="M18" s="98">
+      <c r="M18" s="90">
         <f>[1]!s_stm07_bs(M20,"155",$A$11,1,100000000)</f>
         <v>5145.0200000000004</v>
       </c>
-      <c r="P18" s="98">
+      <c r="P18" s="90">
         <f>[1]!s_stm07_bs(P20,"155",$A$11,1,100000000)</f>
         <v>2045.37</v>
       </c>
-      <c r="S18" s="98">
+      <c r="S18" s="90">
         <f>[1]!s_stm07_bs(S20,"155",$A$11,1,100000000)</f>
         <v>20063.86</v>
       </c>
       <c r="T18">
         <v>9212.0499999999993</v>
       </c>
-      <c r="V18" s="98">
+      <c r="V18" s="90">
         <f>[1]!s_stm07_bs(V20,"155",$A$11,1,100000000)</f>
         <v>4644.5200000000004</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="96">
+      <c r="E27" s="88">
         <f>SUM(E23:E26)</f>
         <v>8438.9500000000007</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="96">
+      <c r="E28" s="88">
         <v>25.36</v>
       </c>
       <c r="G28" s="17" t="s">
@@ -3371,7 +3371,7 @@
       <c r="K30" s="2">
         <v>20.32</v>
       </c>
-      <c r="Q30" s="97">
+      <c r="Q30" s="89">
         <f>Q28-Q29</f>
         <v>2045.37</v>
       </c>
@@ -3430,31 +3430,31 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="98">
+      <c r="A36" s="90">
         <f>[1]!s_stm07_bs(A38,"155",$A$11,1,100000000)</f>
         <v>3812.34</v>
       </c>
-      <c r="E36" s="98">
+      <c r="E36" s="90">
         <f>[1]!s_stm07_bs(E38,"155",$A$11,1,100000000)</f>
         <v>2411.51865</v>
       </c>
-      <c r="H36" s="98">
+      <c r="H36" s="90">
         <f>[1]!s_stm07_bs(H38,"155",$A$11,1,100000000)</f>
         <v>1023.29221</v>
       </c>
-      <c r="K36" s="98">
+      <c r="K36" s="90">
         <f>[1]!s_stm07_bs(K38,"155",$A$11,1,100000000)</f>
         <v>2768.6626900000001</v>
       </c>
-      <c r="N36" s="98">
+      <c r="N36" s="90">
         <f>[1]!s_stm07_bs(N38,"155",$A$11,1,100000000)</f>
         <v>749.08506999999997</v>
       </c>
-      <c r="Q36" s="98">
+      <c r="Q36" s="90">
         <f>[1]!s_stm07_bs(Q38,"155",$A$11,1,100000000)</f>
         <v>710.78346999999997</v>
       </c>
-      <c r="T36" s="98">
+      <c r="T36" s="90">
         <f>[1]!s_stm07_bs(T38,"155",$A$11,1,100000000)</f>
         <v>1465.8905099999999</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="B46" s="2">
         <v>52.52</v>
       </c>
-      <c r="F46" s="100">
+      <c r="F46" s="92">
         <f>F44-F45</f>
         <v>2411.51865</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>2.4</v>
       </c>
       <c r="K47" s="2"/>
-      <c r="L47" s="101">
+      <c r="L47" s="93">
         <f>L45+L46</f>
         <v>2768.6626900000001</v>
       </c>
@@ -3894,23 +3894,23 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A55" s="98">
+      <c r="A55" s="90">
         <f>[1]!s_stm07_bs(A57,"155",$A$11,1,100000000)</f>
         <v>0</v>
       </c>
-      <c r="E55" s="98">
+      <c r="E55" s="90">
         <f>[1]!s_stm07_bs(E57,"155",$A$11,1,100000000)</f>
         <v>77.778710000000004</v>
       </c>
-      <c r="H55" s="98">
+      <c r="H55" s="90">
         <f>[1]!s_stm07_bs(H57,"155",$A$11,1,100000000)</f>
         <v>146.99495999999999</v>
       </c>
-      <c r="L55" s="98">
+      <c r="L55" s="90">
         <f>[1]!s_stm07_bs(L57,"155",$A$11,1,100000000)</f>
         <v>0</v>
       </c>
-      <c r="O55" s="98">
+      <c r="O55" s="90">
         <f>[1]!s_stm07_bs(O57,"155",$A$11,1,100000000)</f>
         <v>62.469861708700002</v>
       </c>
@@ -4036,7 +4036,7 @@
         <f>B60</f>
         <v>0</v>
       </c>
-      <c r="E61" s="95" t="s">
+      <c r="E61" s="87" t="s">
         <v>106</v>
       </c>
       <c r="F61" s="26"/>
@@ -4150,8 +4150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4179,14 +4179,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="41.25" x14ac:dyDescent="0.4">
       <c r="A3" s="38" t="s">
@@ -4287,78 +4287,78 @@
       <c r="B9" s="39"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
     </row>
     <row r="14" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="88" t="s">
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="90"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="98"/>
     </row>
     <row r="15" spans="1:20" s="80" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A15" s="77"/>
@@ -4421,7 +4421,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="101" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="52" t="s">
@@ -4484,11 +4484,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="53">
-        <f>D16*$G$4</f>
+        <f t="shared" ref="Q16:Q40" si="1">D16*$G$4</f>
         <v>2.4685950000000001</v>
       </c>
       <c r="R16" s="54">
-        <f>O16-Q16</f>
+        <f t="shared" ref="R16:R40" si="2">O16-Q16</f>
         <v>1.3220587408600477</v>
       </c>
       <c r="S16" s="42">
@@ -4501,7 +4501,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="87"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="55" t="s">
         <v>141</v>
       </c>
@@ -4514,72 +4514,72 @@
         <v>55.652999999999999</v>
       </c>
       <c r="E17" s="62">
-        <f t="shared" ref="E17:I17" si="1">$D17*I49</f>
+        <f t="shared" ref="E17:I17" si="3">$D17*I49</f>
         <v>53.231860503712269</v>
       </c>
       <c r="F17" s="57">
+        <f t="shared" si="3"/>
+        <v>1.581242045407935</v>
+      </c>
+      <c r="G17" s="57">
+        <f t="shared" si="3"/>
+        <v>0.3471109204182195</v>
+      </c>
+      <c r="H17" s="57">
+        <f t="shared" si="3"/>
+        <v>0.40067244885892489</v>
+      </c>
+      <c r="I17" s="65">
+        <f t="shared" si="3"/>
+        <v>9.211408160264542E-2</v>
+      </c>
+      <c r="J17" s="62">
+        <f t="shared" ref="J17:J40" si="4">E17*$G$4</f>
+        <v>0.79847790755568404</v>
+      </c>
+      <c r="K17" s="57">
+        <f t="shared" ref="K17:K40" si="5">F17*$G$5</f>
+        <v>4.7437261362238047E-2</v>
+      </c>
+      <c r="L17" s="57">
+        <f t="shared" ref="L17:L40" si="6">G17*$G$6</f>
+        <v>0.10413327612546584</v>
+      </c>
+      <c r="M17" s="57">
+        <f t="shared" ref="M17:M40" si="7">H17*$G$7</f>
+        <v>0.24040346931535492</v>
+      </c>
+      <c r="N17" s="65">
+        <f t="shared" ref="N17:N40" si="8">I17*$G$8</f>
+        <v>9.211408160264542E-2</v>
+      </c>
+      <c r="O17" s="68">
+        <f t="shared" ref="O17:O40" si="9">SUM(J17:N17)</f>
+        <v>1.2825659959613882</v>
+      </c>
+      <c r="P17" s="72">
+        <f t="shared" ref="P17:P40" si="10">P49</f>
+        <v>17.059999999999999</v>
+      </c>
+      <c r="Q17" s="56">
         <f t="shared" si="1"/>
-        <v>1.581242045407935</v>
-      </c>
-      <c r="G17" s="57">
-        <f t="shared" si="1"/>
-        <v>0.3471109204182195</v>
-      </c>
-      <c r="H17" s="57">
-        <f t="shared" si="1"/>
-        <v>0.40067244885892489</v>
-      </c>
-      <c r="I17" s="65">
-        <f t="shared" si="1"/>
-        <v>9.211408160264542E-2</v>
-      </c>
-      <c r="J17" s="62">
-        <f t="shared" ref="J17:J40" si="2">E17*$G$4</f>
-        <v>0.79847790755568404</v>
-      </c>
-      <c r="K17" s="57">
-        <f t="shared" ref="K17:K40" si="3">F17*$G$5</f>
-        <v>4.7437261362238047E-2</v>
-      </c>
-      <c r="L17" s="57">
-        <f t="shared" ref="L17:L40" si="4">G17*$G$6</f>
-        <v>0.10413327612546584</v>
-      </c>
-      <c r="M17" s="57">
-        <f t="shared" ref="M17:M40" si="5">H17*$G$7</f>
-        <v>0.24040346931535492</v>
-      </c>
-      <c r="N17" s="65">
-        <f t="shared" ref="N17:N40" si="6">I17*$G$8</f>
-        <v>9.211408160264542E-2</v>
-      </c>
-      <c r="O17" s="68">
-        <f t="shared" ref="O17:O40" si="7">SUM(J17:N17)</f>
-        <v>1.2825659959613882</v>
-      </c>
-      <c r="P17" s="72">
-        <f t="shared" ref="P17:P40" si="8">P49</f>
-        <v>17.059999999999999</v>
-      </c>
-      <c r="Q17" s="56">
-        <f>D17*$G$4</f>
         <v>0.83479499999999995</v>
       </c>
       <c r="R17" s="57">
-        <f>O17-Q17</f>
+        <f t="shared" si="2"/>
         <v>0.44777099596138825</v>
       </c>
       <c r="S17" s="42">
-        <f t="shared" ref="S17:S40" si="9">Q49</f>
+        <f t="shared" ref="S17:S40" si="11">Q49</f>
         <v>1390.09</v>
       </c>
       <c r="T17" s="44">
-        <f t="shared" ref="T17:T40" si="10">-R17/S17</f>
+        <f t="shared" ref="T17:T40" si="12">-R17/S17</f>
         <v>-3.2211655069915496E-4</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="87"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="55" t="s">
         <v>142</v>
       </c>
@@ -4592,72 +4592,72 @@
         <v>55.041999999999916</v>
       </c>
       <c r="E18" s="62">
-        <f t="shared" ref="E18:I18" si="11">$D18*I50</f>
+        <f t="shared" ref="E18:I18" si="13">$D18*I50</f>
         <v>51.842195989826202</v>
       </c>
       <c r="F18" s="57">
+        <f t="shared" si="13"/>
+        <v>1.9922167911810265</v>
+      </c>
+      <c r="G18" s="57">
+        <f t="shared" si="13"/>
+        <v>0.21080215883375153</v>
+      </c>
+      <c r="H18" s="57">
+        <f t="shared" si="13"/>
+        <v>0.87191930151581931</v>
+      </c>
+      <c r="I18" s="65">
+        <f t="shared" si="13"/>
+        <v>0.12486575864312398</v>
+      </c>
+      <c r="J18" s="62">
+        <f t="shared" si="4"/>
+        <v>0.77763293984739301</v>
+      </c>
+      <c r="K18" s="57">
+        <f t="shared" si="5"/>
+        <v>5.9766503735430791E-2</v>
+      </c>
+      <c r="L18" s="57">
+        <f t="shared" si="6"/>
+        <v>6.3240647650125451E-2</v>
+      </c>
+      <c r="M18" s="57">
+        <f t="shared" si="7"/>
+        <v>0.52315158090949154</v>
+      </c>
+      <c r="N18" s="65">
+        <f t="shared" si="8"/>
+        <v>0.12486575864312398</v>
+      </c>
+      <c r="O18" s="68">
+        <f t="shared" si="9"/>
+        <v>1.5486574307855647</v>
+      </c>
+      <c r="P18" s="72">
+        <f t="shared" si="10"/>
+        <v>48.9</v>
+      </c>
+      <c r="Q18" s="56">
+        <f t="shared" si="1"/>
+        <v>0.82562999999999875</v>
+      </c>
+      <c r="R18" s="57">
+        <f t="shared" si="2"/>
+        <v>0.72302743078556597</v>
+      </c>
+      <c r="S18" s="42">
         <f t="shared" si="11"/>
-        <v>1.9922167911810265</v>
-      </c>
-      <c r="G18" s="57">
-        <f t="shared" si="11"/>
-        <v>0.21080215883375153</v>
-      </c>
-      <c r="H18" s="57">
-        <f t="shared" si="11"/>
-        <v>0.87191930151581931</v>
-      </c>
-      <c r="I18" s="65">
-        <f t="shared" si="11"/>
-        <v>0.12486575864312398</v>
-      </c>
-      <c r="J18" s="62">
-        <f t="shared" si="2"/>
-        <v>0.77763293984739301</v>
-      </c>
-      <c r="K18" s="57">
-        <f t="shared" si="3"/>
-        <v>5.9766503735430791E-2</v>
-      </c>
-      <c r="L18" s="57">
-        <f t="shared" si="4"/>
-        <v>6.3240647650125451E-2</v>
-      </c>
-      <c r="M18" s="57">
-        <f t="shared" si="5"/>
-        <v>0.52315158090949154</v>
-      </c>
-      <c r="N18" s="65">
-        <f t="shared" si="6"/>
-        <v>0.12486575864312398</v>
-      </c>
-      <c r="O18" s="68">
-        <f t="shared" si="7"/>
-        <v>1.5486574307855647</v>
-      </c>
-      <c r="P18" s="72">
-        <f t="shared" si="8"/>
-        <v>48.9</v>
-      </c>
-      <c r="Q18" s="56">
-        <f>D18*$G$4</f>
-        <v>0.82562999999999875</v>
-      </c>
-      <c r="R18" s="57">
-        <f>O18-Q18</f>
-        <v>0.72302743078556597</v>
-      </c>
-      <c r="S18" s="42">
-        <f t="shared" si="9"/>
         <v>1086.7</v>
       </c>
       <c r="T18" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-6.6534225709539519E-4</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="87"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="55" t="s">
         <v>143</v>
       </c>
@@ -4670,72 +4670,72 @@
         <v>169.977</v>
       </c>
       <c r="E19" s="62">
-        <f t="shared" ref="E19:I19" si="12">$D19*I51</f>
+        <f t="shared" ref="E19:I19" si="14">$D19*I51</f>
         <v>162.92230295652786</v>
       </c>
       <c r="F19" s="57">
+        <f t="shared" si="14"/>
+        <v>4.7082915127761993</v>
+      </c>
+      <c r="G19" s="57">
+        <f t="shared" si="14"/>
+        <v>1.0193637848130777</v>
+      </c>
+      <c r="H19" s="57">
+        <f t="shared" si="14"/>
+        <v>0.50860464450093101</v>
+      </c>
+      <c r="I19" s="65">
+        <f t="shared" si="14"/>
+        <v>0.81843710138194636</v>
+      </c>
+      <c r="J19" s="62">
+        <f t="shared" si="4"/>
+        <v>2.4438345443479177</v>
+      </c>
+      <c r="K19" s="57">
+        <f t="shared" si="5"/>
+        <v>0.14124874538328597</v>
+      </c>
+      <c r="L19" s="57">
+        <f t="shared" si="6"/>
+        <v>0.3058091354439233</v>
+      </c>
+      <c r="M19" s="57">
+        <f t="shared" si="7"/>
+        <v>0.30516278670055857</v>
+      </c>
+      <c r="N19" s="65">
+        <f t="shared" si="8"/>
+        <v>0.81843710138194636</v>
+      </c>
+      <c r="O19" s="68">
+        <f t="shared" si="9"/>
+        <v>4.014492313257632</v>
+      </c>
+      <c r="P19" s="72">
+        <f t="shared" si="10"/>
+        <v>24.59</v>
+      </c>
+      <c r="Q19" s="56">
+        <f t="shared" si="1"/>
+        <v>2.549655</v>
+      </c>
+      <c r="R19" s="57">
+        <f t="shared" si="2"/>
+        <v>1.464837313257632</v>
+      </c>
+      <c r="S19" s="42">
+        <f t="shared" si="11"/>
+        <v>1105.49</v>
+      </c>
+      <c r="T19" s="44">
         <f t="shared" si="12"/>
-        <v>4.7082915127761993</v>
-      </c>
-      <c r="G19" s="57">
-        <f t="shared" si="12"/>
-        <v>1.0193637848130777</v>
-      </c>
-      <c r="H19" s="57">
-        <f t="shared" si="12"/>
-        <v>0.50860464450093101</v>
-      </c>
-      <c r="I19" s="65">
-        <f t="shared" si="12"/>
-        <v>0.81843710138194636</v>
-      </c>
-      <c r="J19" s="62">
-        <f t="shared" si="2"/>
-        <v>2.4438345443479177</v>
-      </c>
-      <c r="K19" s="57">
-        <f t="shared" si="3"/>
-        <v>0.14124874538328597</v>
-      </c>
-      <c r="L19" s="57">
-        <f t="shared" si="4"/>
-        <v>0.3058091354439233</v>
-      </c>
-      <c r="M19" s="57">
-        <f t="shared" si="5"/>
-        <v>0.30516278670055857</v>
-      </c>
-      <c r="N19" s="65">
-        <f t="shared" si="6"/>
-        <v>0.81843710138194636</v>
-      </c>
-      <c r="O19" s="68">
-        <f t="shared" si="7"/>
-        <v>4.014492313257632</v>
-      </c>
-      <c r="P19" s="72">
-        <f t="shared" si="8"/>
-        <v>24.59</v>
-      </c>
-      <c r="Q19" s="56">
-        <f>D19*$G$4</f>
-        <v>2.549655</v>
-      </c>
-      <c r="R19" s="57">
-        <f>O19-Q19</f>
-        <v>1.464837313257632</v>
-      </c>
-      <c r="S19" s="42">
-        <f t="shared" si="9"/>
-        <v>1105.49</v>
-      </c>
-      <c r="T19" s="44">
-        <f t="shared" si="10"/>
         <v>-1.3250570455251808E-3</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="94"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="51" t="s">
         <v>144</v>
       </c>
@@ -4748,72 +4748,72 @@
         <v>278.71600000000001</v>
       </c>
       <c r="E20" s="63">
-        <f t="shared" ref="E20:I20" si="13">$D20*I52</f>
+        <f t="shared" ref="E20:I20" si="15">$D20*I52</f>
         <v>266.44621189905052</v>
       </c>
       <c r="F20" s="59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.0634864941614079</v>
       </c>
       <c r="G20" s="59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1982471546151652</v>
       </c>
       <c r="H20" s="59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.6153504328344104</v>
       </c>
       <c r="I20" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3927040193384801</v>
       </c>
       <c r="J20" s="63">
+        <f t="shared" si="4"/>
+        <v>3.9966931784857578</v>
+      </c>
+      <c r="K20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.24190459482484222</v>
+      </c>
+      <c r="L20" s="59">
+        <f t="shared" si="6"/>
+        <v>0.35947414638454955</v>
+      </c>
+      <c r="M20" s="59">
+        <f t="shared" si="7"/>
+        <v>0.96921025970064623</v>
+      </c>
+      <c r="N20" s="66">
+        <f t="shared" si="8"/>
+        <v>1.3927040193384801</v>
+      </c>
+      <c r="O20" s="69">
+        <f t="shared" si="9"/>
+        <v>6.9599861987342759</v>
+      </c>
+      <c r="P20" s="73">
+        <f t="shared" si="10"/>
+        <v>26.55</v>
+      </c>
+      <c r="Q20" s="58">
+        <f t="shared" si="1"/>
+        <v>4.1807400000000001</v>
+      </c>
+      <c r="R20" s="59">
         <f t="shared" si="2"/>
-        <v>3.9966931784857578</v>
-      </c>
-      <c r="K20" s="59">
-        <f t="shared" si="3"/>
-        <v>0.24190459482484222</v>
-      </c>
-      <c r="L20" s="59">
-        <f t="shared" si="4"/>
-        <v>0.35947414638454955</v>
-      </c>
-      <c r="M20" s="59">
-        <f t="shared" si="5"/>
-        <v>0.96921025970064623</v>
-      </c>
-      <c r="N20" s="66">
-        <f t="shared" si="6"/>
-        <v>1.3927040193384801</v>
-      </c>
-      <c r="O20" s="69">
-        <f t="shared" si="7"/>
-        <v>6.9599861987342759</v>
-      </c>
-      <c r="P20" s="73">
-        <f t="shared" si="8"/>
-        <v>26.55</v>
-      </c>
-      <c r="Q20" s="58">
-        <f>D20*$G$4</f>
-        <v>4.1807400000000001</v>
-      </c>
-      <c r="R20" s="59">
-        <f>O20-Q20</f>
         <v>2.7792461987342758</v>
       </c>
       <c r="S20" s="59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>392.22</v>
       </c>
       <c r="T20" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-7.0859369709200849E-3</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="101" t="s">
         <v>180</v>
       </c>
       <c r="B21" s="52" t="s">
@@ -4824,76 +4824,76 @@
         <v>5436.8399999999992</v>
       </c>
       <c r="D21" s="53">
-        <f t="shared" ref="D21:D28" si="14">C21*$B$5</f>
+        <f t="shared" ref="D21:D28" si="16">C21*$B$5</f>
         <v>1794.1571999999999</v>
       </c>
       <c r="E21" s="61">
-        <f t="shared" ref="E21:I21" si="15">$D21*I53</f>
+        <f t="shared" ref="E21:I21" si="17">$D21*I53</f>
         <v>1732.7300607886355</v>
       </c>
       <c r="F21" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>30.78452621791681</v>
       </c>
       <c r="G21" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10.919208956993032</v>
       </c>
       <c r="H21" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>11.926286017777713</v>
       </c>
       <c r="I21" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.797118018677164</v>
       </c>
       <c r="J21" s="61">
+        <f t="shared" si="4"/>
+        <v>25.990950911829533</v>
+      </c>
+      <c r="K21" s="54">
+        <f t="shared" si="5"/>
+        <v>0.92353578653750423</v>
+      </c>
+      <c r="L21" s="54">
+        <f t="shared" si="6"/>
+        <v>3.2757626870979095</v>
+      </c>
+      <c r="M21" s="54">
+        <f t="shared" si="7"/>
+        <v>7.1557716106666271</v>
+      </c>
+      <c r="N21" s="64">
+        <f t="shared" si="8"/>
+        <v>7.797118018677164</v>
+      </c>
+      <c r="O21" s="67">
+        <f t="shared" si="9"/>
+        <v>45.143139014808739</v>
+      </c>
+      <c r="P21" s="71">
+        <f t="shared" si="10"/>
+        <v>43.06</v>
+      </c>
+      <c r="Q21" s="56">
+        <f t="shared" si="1"/>
+        <v>26.912357999999998</v>
+      </c>
+      <c r="R21" s="57">
         <f t="shared" si="2"/>
-        <v>25.990950911829533</v>
-      </c>
-      <c r="K21" s="54">
-        <f t="shared" si="3"/>
-        <v>0.92353578653750423</v>
-      </c>
-      <c r="L21" s="54">
-        <f t="shared" si="4"/>
-        <v>3.2757626870979095</v>
-      </c>
-      <c r="M21" s="54">
-        <f t="shared" si="5"/>
-        <v>7.1557716106666271</v>
-      </c>
-      <c r="N21" s="64">
-        <f t="shared" si="6"/>
-        <v>7.797118018677164</v>
-      </c>
-      <c r="O21" s="67">
-        <f t="shared" si="7"/>
-        <v>45.143139014808739</v>
-      </c>
-      <c r="P21" s="71">
-        <f t="shared" si="8"/>
-        <v>43.06</v>
-      </c>
-      <c r="Q21" s="56">
-        <f>D21*$G$4</f>
-        <v>26.912357999999998</v>
-      </c>
-      <c r="R21" s="57">
-        <f>O21-Q21</f>
         <v>18.230781014808741</v>
       </c>
       <c r="S21" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>394.66</v>
       </c>
       <c r="T21" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-4.6193637598968072E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="87"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="55" t="s">
         <v>146</v>
       </c>
@@ -4902,76 +4902,76 @@
         <v>4611.4500000000007</v>
       </c>
       <c r="D22" s="56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1521.7785000000003</v>
       </c>
       <c r="E22" s="62">
-        <f t="shared" ref="E22:I22" si="16">$D22*I54</f>
+        <f t="shared" ref="E22:I22" si="18">$D22*I54</f>
         <v>1461.6452349652795</v>
       </c>
       <c r="F22" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>34.966844998616999</v>
       </c>
       <c r="G22" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>13.956017824751427</v>
       </c>
       <c r="H22" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.0161743488957811</v>
       </c>
       <c r="I22" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.1942278624565086</v>
       </c>
       <c r="J22" s="62">
+        <f t="shared" si="4"/>
+        <v>21.924678524479191</v>
+      </c>
+      <c r="K22" s="57">
+        <f t="shared" si="5"/>
+        <v>1.0490053499585099</v>
+      </c>
+      <c r="L22" s="57">
+        <f t="shared" si="6"/>
+        <v>4.1868053474254276</v>
+      </c>
+      <c r="M22" s="57">
+        <f t="shared" si="7"/>
+        <v>5.4097046093374681</v>
+      </c>
+      <c r="N22" s="65">
+        <f t="shared" si="8"/>
+        <v>2.1942278624565086</v>
+      </c>
+      <c r="O22" s="68">
+        <f t="shared" si="9"/>
+        <v>34.764421693657106</v>
+      </c>
+      <c r="P22" s="72">
+        <f t="shared" si="10"/>
+        <v>25.36</v>
+      </c>
+      <c r="Q22" s="56">
+        <f t="shared" si="1"/>
+        <v>22.826677500000006</v>
+      </c>
+      <c r="R22" s="57">
         <f t="shared" si="2"/>
-        <v>21.924678524479191</v>
-      </c>
-      <c r="K22" s="57">
-        <f t="shared" si="3"/>
-        <v>1.0490053499585099</v>
-      </c>
-      <c r="L22" s="57">
-        <f t="shared" si="4"/>
-        <v>4.1868053474254276</v>
-      </c>
-      <c r="M22" s="57">
-        <f t="shared" si="5"/>
-        <v>5.4097046093374681</v>
-      </c>
-      <c r="N22" s="65">
-        <f t="shared" si="6"/>
-        <v>2.1942278624565086</v>
-      </c>
-      <c r="O22" s="68">
-        <f t="shared" si="7"/>
-        <v>34.764421693657106</v>
-      </c>
-      <c r="P22" s="72">
-        <f t="shared" si="8"/>
-        <v>25.36</v>
-      </c>
-      <c r="Q22" s="56">
-        <f>D22*$G$4</f>
-        <v>22.826677500000006</v>
-      </c>
-      <c r="R22" s="57">
-        <f>O22-Q22</f>
         <v>11.9377441936571</v>
       </c>
       <c r="S22" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>241.64</v>
       </c>
       <c r="T22" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-4.9403013547662224E-2</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="87"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="55" t="s">
         <v>147</v>
       </c>
@@ -4980,76 +4980,76 @@
         <v>6658.77</v>
       </c>
       <c r="D23" s="56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2197.3941000000004</v>
       </c>
       <c r="E23" s="62">
-        <f t="shared" ref="E23:I23" si="17">$D23*I55</f>
+        <f t="shared" ref="E23:I23" si="19">$D23*I55</f>
         <v>2067.2816383924487</v>
       </c>
       <c r="F23" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>84.097981686686595</v>
       </c>
       <c r="G23" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19.813291999302397</v>
       </c>
       <c r="H23" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>16.213250665998128</v>
       </c>
       <c r="I23" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9879372555645194</v>
       </c>
       <c r="J23" s="62">
+        <f t="shared" si="4"/>
+        <v>31.00922457588673</v>
+      </c>
+      <c r="K23" s="57">
+        <f t="shared" si="5"/>
+        <v>2.5229394506005978</v>
+      </c>
+      <c r="L23" s="57">
+        <f t="shared" si="6"/>
+        <v>5.9439875997907192</v>
+      </c>
+      <c r="M23" s="57">
+        <f t="shared" si="7"/>
+        <v>9.7279503995988765</v>
+      </c>
+      <c r="N23" s="65">
+        <f t="shared" si="8"/>
+        <v>9.9879372555645194</v>
+      </c>
+      <c r="O23" s="68">
+        <f t="shared" si="9"/>
+        <v>59.192039281441438</v>
+      </c>
+      <c r="P23" s="72">
+        <f t="shared" si="10"/>
+        <v>65.2</v>
+      </c>
+      <c r="Q23" s="56">
+        <f t="shared" si="1"/>
+        <v>32.960911500000009</v>
+      </c>
+      <c r="R23" s="57">
         <f t="shared" si="2"/>
-        <v>31.00922457588673</v>
-      </c>
-      <c r="K23" s="57">
-        <f t="shared" si="3"/>
-        <v>2.5229394506005978</v>
-      </c>
-      <c r="L23" s="57">
-        <f t="shared" si="4"/>
-        <v>5.9439875997907192</v>
-      </c>
-      <c r="M23" s="57">
-        <f t="shared" si="5"/>
-        <v>9.7279503995988765</v>
-      </c>
-      <c r="N23" s="65">
-        <f t="shared" si="6"/>
-        <v>9.9879372555645194</v>
-      </c>
-      <c r="O23" s="68">
-        <f t="shared" si="7"/>
-        <v>59.192039281441438</v>
-      </c>
-      <c r="P23" s="72">
-        <f t="shared" si="8"/>
-        <v>65.2</v>
-      </c>
-      <c r="Q23" s="56">
-        <f>D23*$G$4</f>
-        <v>32.960911500000009</v>
-      </c>
-      <c r="R23" s="57">
-        <f>O23-Q23</f>
         <v>26.23112778144143</v>
       </c>
       <c r="S23" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>285.22000000000003</v>
       </c>
       <c r="T23" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-9.1968051964944356E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="87"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="55" t="s">
         <v>148</v>
       </c>
@@ -5058,76 +5058,76 @@
         <v>9134.35</v>
       </c>
       <c r="D24" s="56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3014.3355000000001</v>
       </c>
       <c r="E24" s="62">
-        <f t="shared" ref="E24:I24" si="18">$D24*I56</f>
+        <f t="shared" ref="E24:I24" si="20">$D24*I56</f>
         <v>2852.6260607328695</v>
       </c>
       <c r="F24" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>110.90792171027984</v>
       </c>
       <c r="G24" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>18.682171760163531</v>
       </c>
       <c r="H24" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.645157935723173</v>
       </c>
       <c r="I24" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.4741878609641095</v>
       </c>
       <c r="J24" s="62">
+        <f t="shared" si="4"/>
+        <v>42.789390910993042</v>
+      </c>
+      <c r="K24" s="57">
+        <f t="shared" si="5"/>
+        <v>3.327237651308395</v>
+      </c>
+      <c r="L24" s="57">
+        <f t="shared" si="6"/>
+        <v>5.6046515280490592</v>
+      </c>
+      <c r="M24" s="57">
+        <f t="shared" si="7"/>
+        <v>13.587094761433903</v>
+      </c>
+      <c r="N24" s="65">
+        <f t="shared" si="8"/>
+        <v>9.4741878609641095</v>
+      </c>
+      <c r="O24" s="68">
+        <f t="shared" si="9"/>
+        <v>74.782562712748515</v>
+      </c>
+      <c r="P24" s="72">
+        <f t="shared" si="10"/>
+        <v>20.32</v>
+      </c>
+      <c r="Q24" s="56">
+        <f t="shared" si="1"/>
+        <v>45.2150325</v>
+      </c>
+      <c r="R24" s="57">
         <f t="shared" si="2"/>
-        <v>42.789390910993042</v>
-      </c>
-      <c r="K24" s="57">
-        <f t="shared" si="3"/>
-        <v>3.327237651308395</v>
-      </c>
-      <c r="L24" s="57">
-        <f t="shared" si="4"/>
-        <v>5.6046515280490592</v>
-      </c>
-      <c r="M24" s="57">
-        <f t="shared" si="5"/>
-        <v>13.587094761433903</v>
-      </c>
-      <c r="N24" s="65">
-        <f t="shared" si="6"/>
-        <v>9.4741878609641095</v>
-      </c>
-      <c r="O24" s="68">
-        <f t="shared" si="7"/>
-        <v>74.782562712748515</v>
-      </c>
-      <c r="P24" s="72">
-        <f t="shared" si="8"/>
-        <v>20.32</v>
-      </c>
-      <c r="Q24" s="56">
-        <f>D24*$G$4</f>
-        <v>45.2150325</v>
-      </c>
-      <c r="R24" s="57">
-        <f>O24-Q24</f>
         <v>29.567530212748515</v>
       </c>
       <c r="S24" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>286.14</v>
       </c>
       <c r="T24" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.10333239048280043</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="87"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="55" t="s">
         <v>149</v>
       </c>
@@ -5140,72 +5140,72 @@
         <v>4623.6860999999999</v>
       </c>
       <c r="E25" s="62">
-        <f t="shared" ref="E25:I25" si="19">$D25*I57</f>
+        <f t="shared" ref="E25:I25" si="21">$D25*I57</f>
         <v>4417.0751799591626</v>
       </c>
       <c r="F25" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>132.4935960391567</v>
       </c>
       <c r="G25" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>27.918206717177348</v>
       </c>
       <c r="H25" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>33.163874844101869</v>
       </c>
       <c r="I25" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>13.035242440401545</v>
       </c>
       <c r="J25" s="62">
+        <f t="shared" si="4"/>
+        <v>66.256127699387434</v>
+      </c>
+      <c r="K25" s="57">
+        <f t="shared" si="5"/>
+        <v>3.974807881174701</v>
+      </c>
+      <c r="L25" s="57">
+        <f t="shared" si="6"/>
+        <v>8.3754620151532038</v>
+      </c>
+      <c r="M25" s="57">
+        <f t="shared" si="7"/>
+        <v>19.89832490646112</v>
+      </c>
+      <c r="N25" s="65">
+        <f t="shared" si="8"/>
+        <v>13.035242440401545</v>
+      </c>
+      <c r="O25" s="68">
+        <f t="shared" si="9"/>
+        <v>111.53996494257801</v>
+      </c>
+      <c r="P25" s="72">
+        <f t="shared" si="10"/>
+        <v>159.46</v>
+      </c>
+      <c r="Q25" s="56">
+        <f t="shared" si="1"/>
+        <v>69.355291499999993</v>
+      </c>
+      <c r="R25" s="57">
         <f t="shared" si="2"/>
-        <v>66.256127699387434</v>
-      </c>
-      <c r="K25" s="57">
-        <f t="shared" si="3"/>
-        <v>3.974807881174701</v>
-      </c>
-      <c r="L25" s="57">
-        <f t="shared" si="4"/>
-        <v>8.3754620151532038</v>
-      </c>
-      <c r="M25" s="57">
-        <f t="shared" si="5"/>
-        <v>19.89832490646112</v>
-      </c>
-      <c r="N25" s="65">
-        <f t="shared" si="6"/>
-        <v>13.035242440401545</v>
-      </c>
-      <c r="O25" s="68">
-        <f t="shared" si="7"/>
-        <v>111.53996494257801</v>
-      </c>
-      <c r="P25" s="72">
-        <f t="shared" si="8"/>
-        <v>159.46</v>
-      </c>
-      <c r="Q25" s="56">
-        <f>D25*$G$4</f>
-        <v>69.355291499999993</v>
-      </c>
-      <c r="R25" s="57">
-        <f>O25-Q25</f>
         <v>42.184673442578017</v>
       </c>
       <c r="S25" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>318.39</v>
       </c>
       <c r="T25" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.13249371350412392</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="87"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="55" t="s">
         <v>150</v>
       </c>
@@ -5218,72 +5218,72 @@
         <v>1624.7814000000001</v>
       </c>
       <c r="E26" s="62">
-        <f t="shared" ref="E26:I26" si="20">$D26*I58</f>
+        <f t="shared" ref="E26:I26" si="22">$D26*I58</f>
         <v>1545.1687258857448</v>
       </c>
       <c r="F26" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>53.92233511551337</v>
       </c>
       <c r="G26" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.1931398850974944</v>
       </c>
       <c r="H26" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12.293911943507794</v>
       </c>
       <c r="I26" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.2032871701363437</v>
       </c>
       <c r="J26" s="62">
+        <f t="shared" si="4"/>
+        <v>23.177530888286171</v>
+      </c>
+      <c r="K26" s="57">
+        <f t="shared" si="5"/>
+        <v>1.6176700534654009</v>
+      </c>
+      <c r="L26" s="57">
+        <f t="shared" si="6"/>
+        <v>2.7579419655292483</v>
+      </c>
+      <c r="M26" s="57">
+        <f t="shared" si="7"/>
+        <v>7.3763471661046758</v>
+      </c>
+      <c r="N26" s="65">
+        <f t="shared" si="8"/>
+        <v>4.2032871701363437</v>
+      </c>
+      <c r="O26" s="68">
+        <f t="shared" si="9"/>
+        <v>39.132777243521836</v>
+      </c>
+      <c r="P26" s="72">
+        <f t="shared" si="10"/>
+        <v>20.92</v>
+      </c>
+      <c r="Q26" s="56">
+        <f t="shared" si="1"/>
+        <v>24.371721000000001</v>
+      </c>
+      <c r="R26" s="57">
         <f t="shared" si="2"/>
-        <v>23.177530888286171</v>
-      </c>
-      <c r="K26" s="57">
-        <f t="shared" si="3"/>
-        <v>1.6176700534654009</v>
-      </c>
-      <c r="L26" s="57">
-        <f t="shared" si="4"/>
-        <v>2.7579419655292483</v>
-      </c>
-      <c r="M26" s="57">
-        <f t="shared" si="5"/>
-        <v>7.3763471661046758</v>
-      </c>
-      <c r="N26" s="65">
-        <f t="shared" si="6"/>
-        <v>4.2032871701363437</v>
-      </c>
-      <c r="O26" s="68">
-        <f t="shared" si="7"/>
-        <v>39.132777243521836</v>
-      </c>
-      <c r="P26" s="72">
-        <f t="shared" si="8"/>
-        <v>20.92</v>
-      </c>
-      <c r="Q26" s="56">
-        <f>D26*$G$4</f>
-        <v>24.371721000000001</v>
-      </c>
-      <c r="R26" s="57">
-        <f>O26-Q26</f>
         <v>14.761056243521836</v>
       </c>
       <c r="S26" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>169.72</v>
       </c>
       <c r="T26" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-8.6972992243234945E-2</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="87"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="55" t="s">
         <v>151</v>
       </c>
@@ -5292,76 +5292,76 @@
         <v>1741.3199999999997</v>
       </c>
       <c r="D27" s="56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>574.63559999999995</v>
       </c>
       <c r="E27" s="62">
-        <f t="shared" ref="E27:I27" si="21">$D27*I59</f>
+        <f t="shared" ref="E27:I27" si="23">$D27*I59</f>
         <v>539.45545841061789</v>
       </c>
       <c r="F27" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>25.504099752510967</v>
       </c>
       <c r="G27" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.0053924940800405</v>
       </c>
       <c r="H27" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.8724352278983738</v>
       </c>
       <c r="I27" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.7982141148926385</v>
       </c>
       <c r="J27" s="62">
+        <f t="shared" si="4"/>
+        <v>8.0918318761592687</v>
+      </c>
+      <c r="K27" s="57">
+        <f t="shared" si="5"/>
+        <v>0.76512299257532901</v>
+      </c>
+      <c r="L27" s="57">
+        <f t="shared" si="6"/>
+        <v>1.201617748224012</v>
+      </c>
+      <c r="M27" s="57">
+        <f t="shared" si="7"/>
+        <v>2.3234611367390241</v>
+      </c>
+      <c r="N27" s="65">
+        <f t="shared" si="8"/>
+        <v>1.7982141148926385</v>
+      </c>
+      <c r="O27" s="68">
+        <f t="shared" si="9"/>
+        <v>14.180247868590271</v>
+      </c>
+      <c r="P27" s="72">
+        <f t="shared" si="10"/>
+        <v>14.73</v>
+      </c>
+      <c r="Q27" s="56">
+        <f t="shared" si="1"/>
+        <v>8.6195339999999998</v>
+      </c>
+      <c r="R27" s="57">
         <f t="shared" si="2"/>
-        <v>8.0918318761592687</v>
-      </c>
-      <c r="K27" s="57">
-        <f t="shared" si="3"/>
-        <v>0.76512299257532901</v>
-      </c>
-      <c r="L27" s="57">
-        <f t="shared" si="4"/>
-        <v>1.201617748224012</v>
-      </c>
-      <c r="M27" s="57">
-        <f t="shared" si="5"/>
-        <v>2.3234611367390241</v>
-      </c>
-      <c r="N27" s="65">
-        <f t="shared" si="6"/>
-        <v>1.7982141148926385</v>
-      </c>
-      <c r="O27" s="68">
-        <f t="shared" si="7"/>
-        <v>14.180247868590271</v>
-      </c>
-      <c r="P27" s="72">
-        <f t="shared" si="8"/>
-        <v>14.73</v>
-      </c>
-      <c r="Q27" s="56">
-        <f>D27*$G$4</f>
-        <v>8.6195339999999998</v>
-      </c>
-      <c r="R27" s="57">
-        <f>O27-Q27</f>
         <v>5.5607138685902715</v>
       </c>
       <c r="S27" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>99.07</v>
       </c>
       <c r="T27" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-5.6129139684972969E-2</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A28" s="94"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="51" t="s">
         <v>152</v>
       </c>
@@ -5370,76 +5370,76 @@
         <v>3685.3699999999994</v>
       </c>
       <c r="D28" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1216.1720999999998</v>
       </c>
       <c r="E28" s="63">
-        <f t="shared" ref="E28:I28" si="22">$D28*I60</f>
+        <f t="shared" ref="E28:I28" si="24">$D28*I60</f>
         <v>1144.4305931285012</v>
       </c>
       <c r="F28" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50.353923899801842</v>
       </c>
       <c r="G28" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10.49659884048044</v>
       </c>
       <c r="H28" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.7966259032755203</v>
       </c>
       <c r="I28" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.0943582279409956</v>
       </c>
       <c r="J28" s="63">
+        <f t="shared" si="4"/>
+        <v>17.166458896927516</v>
+      </c>
+      <c r="K28" s="59">
+        <f t="shared" si="5"/>
+        <v>1.5106177169940551</v>
+      </c>
+      <c r="L28" s="59">
+        <f t="shared" si="6"/>
+        <v>3.1489796521441318</v>
+      </c>
+      <c r="M28" s="59">
+        <f t="shared" si="7"/>
+        <v>2.2779755419653123</v>
+      </c>
+      <c r="N28" s="66">
+        <f t="shared" si="8"/>
+        <v>7.0943582279409956</v>
+      </c>
+      <c r="O28" s="69">
+        <f t="shared" si="9"/>
+        <v>31.198390035972011</v>
+      </c>
+      <c r="P28" s="73">
+        <f t="shared" si="10"/>
+        <v>23.55</v>
+      </c>
+      <c r="Q28" s="58">
+        <f t="shared" si="1"/>
+        <v>18.242581499999996</v>
+      </c>
+      <c r="R28" s="59">
         <f t="shared" si="2"/>
-        <v>17.166458896927516</v>
-      </c>
-      <c r="K28" s="59">
-        <f t="shared" si="3"/>
-        <v>1.5106177169940551</v>
-      </c>
-      <c r="L28" s="59">
-        <f t="shared" si="4"/>
-        <v>3.1489796521441318</v>
-      </c>
-      <c r="M28" s="59">
-        <f t="shared" si="5"/>
-        <v>2.2779755419653123</v>
-      </c>
-      <c r="N28" s="66">
-        <f t="shared" si="6"/>
-        <v>7.0943582279409956</v>
-      </c>
-      <c r="O28" s="69">
-        <f t="shared" si="7"/>
-        <v>31.198390035972011</v>
-      </c>
-      <c r="P28" s="73">
-        <f t="shared" si="8"/>
-        <v>23.55</v>
-      </c>
-      <c r="Q28" s="58">
-        <f>D28*$G$4</f>
-        <v>18.242581499999996</v>
-      </c>
-      <c r="R28" s="59">
-        <f>O28-Q28</f>
         <v>12.955808535972015</v>
       </c>
       <c r="S28" s="59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>125.54</v>
       </c>
       <c r="T28" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.10320064151642515</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="103" t="s">
         <v>194</v>
       </c>
       <c r="B29" s="52" t="s">
@@ -5450,76 +5450,76 @@
         <v>3701.5499999999997</v>
       </c>
       <c r="D29" s="53">
-        <f t="shared" ref="D29:D35" si="23">C29*$B$6</f>
+        <f t="shared" ref="D29:D35" si="25">C29*$B$6</f>
         <v>740.31</v>
       </c>
       <c r="E29" s="61">
-        <f t="shared" ref="E29:I29" si="24">$D29*I61</f>
+        <f t="shared" ref="E29:I29" si="26">$D29*I61</f>
         <v>722.87766811063602</v>
       </c>
       <c r="F29" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.682576926351782</v>
       </c>
       <c r="G29" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.8841489295508955</v>
       </c>
       <c r="H29" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.41717914645104487</v>
       </c>
       <c r="I29" s="64">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.4484268870101804</v>
       </c>
       <c r="J29" s="61">
+        <f t="shared" si="4"/>
+        <v>10.843165021659541</v>
+      </c>
+      <c r="K29" s="54">
+        <f t="shared" si="5"/>
+        <v>0.26047730779055345</v>
+      </c>
+      <c r="L29" s="54">
+        <f t="shared" si="6"/>
+        <v>2.0652446788652687</v>
+      </c>
+      <c r="M29" s="54">
+        <f t="shared" si="7"/>
+        <v>0.2503074878706269</v>
+      </c>
+      <c r="N29" s="64">
+        <f t="shared" si="8"/>
+        <v>1.4484268870101804</v>
+      </c>
+      <c r="O29" s="67">
+        <f t="shared" si="9"/>
+        <v>14.86762138319617</v>
+      </c>
+      <c r="P29" s="72">
+        <f t="shared" si="10"/>
+        <v>97.36</v>
+      </c>
+      <c r="Q29" s="56">
+        <f t="shared" si="1"/>
+        <v>11.104649999999999</v>
+      </c>
+      <c r="R29" s="57">
         <f t="shared" si="2"/>
-        <v>10.843165021659541</v>
-      </c>
-      <c r="K29" s="54">
-        <f t="shared" si="3"/>
-        <v>0.26047730779055345</v>
-      </c>
-      <c r="L29" s="54">
-        <f t="shared" si="4"/>
-        <v>2.0652446788652687</v>
-      </c>
-      <c r="M29" s="54">
-        <f t="shared" si="5"/>
-        <v>0.2503074878706269</v>
-      </c>
-      <c r="N29" s="64">
-        <f t="shared" si="6"/>
-        <v>1.4484268870101804</v>
-      </c>
-      <c r="O29" s="67">
-        <f t="shared" si="7"/>
-        <v>14.86762138319617</v>
-      </c>
-      <c r="P29" s="72">
-        <f t="shared" si="8"/>
-        <v>97.36</v>
-      </c>
-      <c r="Q29" s="56">
-        <f>D29*$G$4</f>
-        <v>11.104649999999999</v>
-      </c>
-      <c r="R29" s="57">
-        <f>O29-Q29</f>
         <v>3.7629713831961702</v>
       </c>
       <c r="S29" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>111.55</v>
       </c>
       <c r="T29" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3.3733495142950876E-2</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A30" s="87"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="55" t="s">
         <v>154</v>
       </c>
@@ -5528,76 +5528,76 @@
         <v>2379.6147000000001</v>
       </c>
       <c r="D30" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>475.92294000000004</v>
       </c>
       <c r="E30" s="62">
-        <f t="shared" ref="E30:I30" si="25">$D30*I62</f>
+        <f t="shared" ref="E30:I30" si="27">$D30*I62</f>
         <v>463.12626619659568</v>
       </c>
       <c r="F30" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.6814125546311018</v>
       </c>
       <c r="G30" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.8041611731478664</v>
       </c>
       <c r="H30" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.97473215157171911</v>
       </c>
       <c r="I30" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.33636792405367227</v>
       </c>
       <c r="J30" s="62">
+        <f t="shared" si="4"/>
+        <v>6.9468939929489348</v>
+      </c>
+      <c r="K30" s="57">
+        <f t="shared" si="5"/>
+        <v>0.26044237663893305</v>
+      </c>
+      <c r="L30" s="57">
+        <f t="shared" si="6"/>
+        <v>0.84124835194435987</v>
+      </c>
+      <c r="M30" s="57">
+        <f t="shared" si="7"/>
+        <v>0.58483929094303144</v>
+      </c>
+      <c r="N30" s="65">
+        <f t="shared" si="8"/>
+        <v>0.33636792405367227</v>
+      </c>
+      <c r="O30" s="68">
+        <f t="shared" si="9"/>
+        <v>8.9697919365289316</v>
+      </c>
+      <c r="P30" s="72">
+        <f t="shared" si="10"/>
+        <v>24.131910000000001</v>
+      </c>
+      <c r="Q30" s="56">
+        <f t="shared" si="1"/>
+        <v>7.1388441</v>
+      </c>
+      <c r="R30" s="57">
         <f t="shared" si="2"/>
-        <v>6.9468939929489348</v>
-      </c>
-      <c r="K30" s="57">
-        <f t="shared" si="3"/>
-        <v>0.26044237663893305</v>
-      </c>
-      <c r="L30" s="57">
-        <f t="shared" si="4"/>
-        <v>0.84124835194435987</v>
-      </c>
-      <c r="M30" s="57">
-        <f t="shared" si="5"/>
-        <v>0.58483929094303144</v>
-      </c>
-      <c r="N30" s="65">
-        <f t="shared" si="6"/>
-        <v>0.33636792405367227</v>
-      </c>
-      <c r="O30" s="68">
-        <f t="shared" si="7"/>
-        <v>8.9697919365289316</v>
-      </c>
-      <c r="P30" s="72">
-        <f t="shared" si="8"/>
-        <v>24.131910000000001</v>
-      </c>
-      <c r="Q30" s="56">
-        <f>D30*$G$4</f>
-        <v>7.1388441</v>
-      </c>
-      <c r="R30" s="57">
-        <f>O30-Q30</f>
         <v>1.8309478365289316</v>
       </c>
       <c r="S30" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>51.603630000000003</v>
       </c>
       <c r="T30" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3.548098915771878E-2</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A31" s="87"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="55" t="s">
         <v>155</v>
       </c>
@@ -5606,47 +5606,47 @@
         <v>1024.1644699999999</v>
       </c>
       <c r="D31" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>204.83289400000001</v>
       </c>
       <c r="E31" s="62">
-        <f t="shared" ref="E31:I31" si="26">$D31*I63</f>
+        <f t="shared" ref="E31:I31" si="28">$D31*I63</f>
         <v>201.39272202552092</v>
       </c>
       <c r="F31" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.5815136023171366</v>
       </c>
       <c r="G31" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1125581547579224</v>
       </c>
       <c r="H31" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.61651958690344411</v>
       </c>
       <c r="I31" s="65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.1295806305005768</v>
       </c>
       <c r="J31" s="62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0208908303828137</v>
       </c>
       <c r="K31" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7445408069514097E-2</v>
       </c>
       <c r="L31" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.33376744642737671</v>
       </c>
       <c r="M31" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.36991175214206645</v>
       </c>
       <c r="N31" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1295806305005768</v>
       </c>
       <c r="O31" s="68">
@@ -5654,28 +5654,28 @@
         <v>3.9015960675223478</v>
       </c>
       <c r="P31" s="72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
       <c r="Q31" s="56">
-        <f>D31*$G$4</f>
+        <f t="shared" si="1"/>
         <v>3.0724934099999999</v>
       </c>
       <c r="R31" s="57">
-        <f>O31-Q31</f>
+        <f t="shared" si="2"/>
         <v>0.82910265752234791</v>
       </c>
       <c r="S31" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>47.743119999999998</v>
       </c>
       <c r="T31" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.7365908585830755E-2</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="87"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="55" t="s">
         <v>156</v>
       </c>
@@ -5684,76 +5684,76 @@
         <v>1449.6943999999999</v>
       </c>
       <c r="D32" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>289.93887999999998</v>
       </c>
       <c r="E32" s="62">
-        <f t="shared" ref="E32:I32" si="27">$D32*I64</f>
+        <f t="shared" ref="E32:I32" si="29">$D32*I64</f>
         <v>280.41546185959203</v>
       </c>
       <c r="F32" s="57">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.1543018094751138</v>
       </c>
       <c r="G32" s="57">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.1067866840445484</v>
       </c>
       <c r="H32" s="57">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.6903339478627204</v>
       </c>
       <c r="I32" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.57199569902553915</v>
       </c>
       <c r="J32" s="62">
+        <f t="shared" si="4"/>
+        <v>4.2062319278938807</v>
+      </c>
+      <c r="K32" s="57">
+        <f t="shared" si="5"/>
+        <v>0.18462905428425341</v>
+      </c>
+      <c r="L32" s="57">
+        <f t="shared" si="6"/>
+        <v>0.33203600521336452</v>
+      </c>
+      <c r="M32" s="57">
+        <f t="shared" si="7"/>
+        <v>1.0142003687176322</v>
+      </c>
+      <c r="N32" s="65">
+        <f t="shared" si="8"/>
+        <v>0.57199569902553915</v>
+      </c>
+      <c r="O32" s="68">
+        <f t="shared" si="9"/>
+        <v>6.30909305513467</v>
+      </c>
+      <c r="P32" s="72">
+        <f t="shared" si="10"/>
+        <v>67.708160000000007</v>
+      </c>
+      <c r="Q32" s="56">
+        <f t="shared" si="1"/>
+        <v>4.3490831999999999</v>
+      </c>
+      <c r="R32" s="57">
         <f t="shared" si="2"/>
-        <v>4.2062319278938807</v>
-      </c>
-      <c r="K32" s="57">
-        <f t="shared" si="3"/>
-        <v>0.18462905428425341</v>
-      </c>
-      <c r="L32" s="57">
-        <f t="shared" si="4"/>
-        <v>0.33203600521336452</v>
-      </c>
-      <c r="M32" s="57">
-        <f t="shared" si="5"/>
-        <v>1.0142003687176322</v>
-      </c>
-      <c r="N32" s="65">
-        <f t="shared" si="6"/>
-        <v>0.57199569902553915</v>
-      </c>
-      <c r="O32" s="68">
-        <f t="shared" si="7"/>
-        <v>6.30909305513467</v>
-      </c>
-      <c r="P32" s="72">
-        <f t="shared" si="8"/>
-        <v>67.708160000000007</v>
-      </c>
-      <c r="Q32" s="56">
-        <f>D32*$G$4</f>
-        <v>4.3490831999999999</v>
-      </c>
-      <c r="R32" s="57">
-        <f>O32-Q32</f>
         <v>1.9600098551346701</v>
       </c>
       <c r="S32" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>78.062079999999995</v>
       </c>
       <c r="T32" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.5108347806446742E-2</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="87"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="55" t="s">
         <v>157</v>
       </c>
@@ -5762,76 +5762,76 @@
         <v>763.49552000000006</v>
       </c>
       <c r="D33" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>152.69910400000001</v>
       </c>
       <c r="E33" s="62">
-        <f t="shared" ref="E33:I33" si="28">$D33*I65</f>
+        <f t="shared" ref="E33:I33" si="30">$D33*I65</f>
         <v>144.90026932641356</v>
       </c>
       <c r="F33" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.568635654948368</v>
       </c>
       <c r="G33" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0447896590161525</v>
       </c>
       <c r="H33" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.68463954808242111</v>
       </c>
       <c r="I33" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.50077120382754359</v>
       </c>
       <c r="J33" s="62">
+        <f t="shared" si="4"/>
+        <v>2.1735040398962036</v>
+      </c>
+      <c r="K33" s="57">
+        <f t="shared" si="5"/>
+        <v>0.16705906964845102</v>
+      </c>
+      <c r="L33" s="57">
+        <f t="shared" si="6"/>
+        <v>0.31343689770484573</v>
+      </c>
+      <c r="M33" s="57">
+        <f t="shared" si="7"/>
+        <v>0.41078372884945263</v>
+      </c>
+      <c r="N33" s="65">
+        <f t="shared" si="8"/>
+        <v>0.50077120382754359</v>
+      </c>
+      <c r="O33" s="68">
+        <f t="shared" si="9"/>
+        <v>3.5655549399264967</v>
+      </c>
+      <c r="P33" s="72">
+        <f t="shared" si="10"/>
+        <v>14.410450000000001</v>
+      </c>
+      <c r="Q33" s="56">
+        <f t="shared" si="1"/>
+        <v>2.2904865600000002</v>
+      </c>
+      <c r="R33" s="57">
         <f t="shared" si="2"/>
-        <v>2.1735040398962036</v>
-      </c>
-      <c r="K33" s="57">
-        <f t="shared" si="3"/>
-        <v>0.16705906964845102</v>
-      </c>
-      <c r="L33" s="57">
-        <f t="shared" si="4"/>
-        <v>0.31343689770484573</v>
-      </c>
-      <c r="M33" s="57">
-        <f t="shared" si="5"/>
-        <v>0.41078372884945263</v>
-      </c>
-      <c r="N33" s="65">
-        <f t="shared" si="6"/>
-        <v>0.50077120382754359</v>
-      </c>
-      <c r="O33" s="68">
-        <f t="shared" si="7"/>
-        <v>3.5655549399264967</v>
-      </c>
-      <c r="P33" s="72">
-        <f t="shared" si="8"/>
-        <v>14.410450000000001</v>
-      </c>
-      <c r="Q33" s="56">
-        <f>D33*$G$4</f>
-        <v>2.2904865600000002</v>
-      </c>
-      <c r="R33" s="57">
-        <f>O33-Q33</f>
         <v>1.2750683799264966</v>
       </c>
       <c r="S33" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.07517</v>
       </c>
       <c r="T33" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-6.6844404528321189E-2</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="87"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="55" t="s">
         <v>158</v>
       </c>
@@ -5840,76 +5840,76 @@
         <v>711.88409999999999</v>
       </c>
       <c r="D34" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>142.37682000000001</v>
       </c>
       <c r="E34" s="62">
-        <f t="shared" ref="E34:I34" si="29">$D34*I66</f>
+        <f t="shared" ref="E34:I34" si="31">$D34*I66</f>
         <v>134.93610158211033</v>
       </c>
       <c r="F34" s="57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.1464107585861063</v>
       </c>
       <c r="G34" s="57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0441182238179711</v>
       </c>
       <c r="H34" s="57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.20331189722830459</v>
       </c>
       <c r="I34" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0468775382573143</v>
       </c>
       <c r="J34" s="62">
+        <f t="shared" si="4"/>
+        <v>2.0240415237316549</v>
+      </c>
+      <c r="K34" s="57">
+        <f t="shared" si="5"/>
+        <v>0.15439232275758319</v>
+      </c>
+      <c r="L34" s="57">
+        <f t="shared" si="6"/>
+        <v>0.31323546714539136</v>
+      </c>
+      <c r="M34" s="57">
+        <f t="shared" si="7"/>
+        <v>0.12198713833698274</v>
+      </c>
+      <c r="N34" s="65">
+        <f t="shared" si="8"/>
+        <v>1.0468775382573143</v>
+      </c>
+      <c r="O34" s="68">
+        <f t="shared" si="9"/>
+        <v>3.6605339902289264</v>
+      </c>
+      <c r="P34" s="72">
+        <f t="shared" si="10"/>
+        <v>2.35</v>
+      </c>
+      <c r="Q34" s="56">
+        <f t="shared" si="1"/>
+        <v>2.1356523000000003</v>
+      </c>
+      <c r="R34" s="57">
         <f t="shared" si="2"/>
-        <v>2.0240415237316549</v>
-      </c>
-      <c r="K34" s="57">
-        <f t="shared" si="3"/>
-        <v>0.15439232275758319</v>
-      </c>
-      <c r="L34" s="57">
-        <f t="shared" si="4"/>
-        <v>0.31323546714539136</v>
-      </c>
-      <c r="M34" s="57">
-        <f t="shared" si="5"/>
-        <v>0.12198713833698274</v>
-      </c>
-      <c r="N34" s="65">
-        <f t="shared" si="6"/>
-        <v>1.0468775382573143</v>
-      </c>
-      <c r="O34" s="68">
-        <f t="shared" si="7"/>
-        <v>3.6605339902289264</v>
-      </c>
-      <c r="P34" s="72">
-        <f t="shared" si="8"/>
-        <v>2.35</v>
-      </c>
-      <c r="Q34" s="56">
-        <f>D34*$G$4</f>
-        <v>2.1356523000000003</v>
-      </c>
-      <c r="R34" s="57">
-        <f>O34-Q34</f>
         <v>1.5248816902289262</v>
       </c>
       <c r="S34" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25.31119</v>
       </c>
       <c r="T34" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-6.024535749717521E-2</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A35" s="94"/>
+      <c r="A35" s="102"/>
       <c r="B35" s="51" t="s">
         <v>159</v>
       </c>
@@ -5918,76 +5918,76 @@
         <v>0</v>
       </c>
       <c r="D35" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E35" s="63">
-        <f t="shared" ref="E35:I35" si="30">$D35*I67</f>
+        <f t="shared" ref="E35:I35" si="32">$D35*I67</f>
         <v>0</v>
       </c>
       <c r="F35" s="59">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G35" s="59">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H35" s="59">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I35" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J35" s="63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="69">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="73">
+        <f t="shared" si="10"/>
+        <v>24.378209999999999</v>
+      </c>
+      <c r="Q35" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K35" s="59">
-        <f t="shared" si="3"/>
+      <c r="S35" s="59">
+        <f t="shared" si="11"/>
+        <v>62.21358</v>
+      </c>
+      <c r="T35" s="60">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L35" s="59">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="73">
-        <f t="shared" si="8"/>
-        <v>24.378209999999999</v>
-      </c>
-      <c r="Q35" s="58">
-        <f>D35*$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="59">
-        <f>O35-Q35</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="59">
-        <f t="shared" si="9"/>
-        <v>62.21358</v>
-      </c>
-      <c r="T35" s="60">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="36" spans="1:21" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="95" t="s">
         <v>181</v>
       </c>
       <c r="B36" s="38" t="s">
@@ -6002,72 +6002,72 @@
         <v>15.796799999999999</v>
       </c>
       <c r="E36" s="62">
-        <f t="shared" ref="E36:I36" si="31">$D36*I68</f>
+        <f t="shared" ref="E36:I36" si="33">$D36*I68</f>
         <v>15.35210382250157</v>
       </c>
       <c r="F36" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.23708277095585845</v>
       </c>
       <c r="G36" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.17261304698821081</v>
       </c>
       <c r="H36" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3.2470437271422702E-2</v>
       </c>
       <c r="I36" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2.5299222829339462E-3</v>
       </c>
       <c r="J36" s="62">
+        <f t="shared" si="4"/>
+        <v>0.23028155733752353</v>
+      </c>
+      <c r="K36" s="57">
+        <f t="shared" si="5"/>
+        <v>7.1124831286757534E-3</v>
+      </c>
+      <c r="L36" s="57">
+        <f t="shared" si="6"/>
+        <v>5.1783914096463241E-2</v>
+      </c>
+      <c r="M36" s="57">
+        <f t="shared" si="7"/>
+        <v>1.9482262362853619E-2</v>
+      </c>
+      <c r="N36" s="65">
+        <f t="shared" si="8"/>
+        <v>2.5299222829339462E-3</v>
+      </c>
+      <c r="O36" s="70">
+        <f t="shared" si="9"/>
+        <v>0.31119013920845007</v>
+      </c>
+      <c r="P36" s="48">
+        <f t="shared" si="10"/>
+        <v>1.20529</v>
+      </c>
+      <c r="Q36" s="41">
+        <f t="shared" si="1"/>
+        <v>0.23695199999999997</v>
+      </c>
+      <c r="R36" s="42">
         <f t="shared" si="2"/>
-        <v>0.23028155733752353</v>
-      </c>
-      <c r="K36" s="57">
-        <f t="shared" si="3"/>
-        <v>7.1124831286757534E-3</v>
-      </c>
-      <c r="L36" s="57">
-        <f t="shared" si="4"/>
-        <v>5.1783914096463241E-2</v>
-      </c>
-      <c r="M36" s="57">
-        <f t="shared" si="5"/>
-        <v>1.9482262362853619E-2</v>
-      </c>
-      <c r="N36" s="65">
-        <f t="shared" si="6"/>
-        <v>2.5299222829339462E-3</v>
-      </c>
-      <c r="O36" s="70">
-        <f t="shared" si="7"/>
-        <v>0.31119013920845007</v>
-      </c>
-      <c r="P36" s="48">
-        <f t="shared" si="8"/>
-        <v>1.20529</v>
-      </c>
-      <c r="Q36" s="41">
-        <f>D36*$G$4</f>
-        <v>0.23695199999999997</v>
-      </c>
-      <c r="R36" s="42">
-        <f>O36-Q36</f>
         <v>7.4238139208450099E-2</v>
       </c>
       <c r="S36" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.2125899999999996</v>
       </c>
       <c r="T36" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.4242082958462129E-2</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="87"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="38" t="s">
         <v>161</v>
       </c>
@@ -6080,72 +6080,72 @@
         <v>28.551462000000001</v>
       </c>
       <c r="E37" s="62">
-        <f t="shared" ref="E37:I37" si="32">$D37*I69</f>
+        <f t="shared" ref="E37:I37" si="34">$D37*I69</f>
         <v>27.286579192881241</v>
       </c>
       <c r="F37" s="57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.89588088940042898</v>
       </c>
       <c r="G37" s="57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.35907550659011794</v>
       </c>
       <c r="H37" s="57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>7.7432692323887086E-3</v>
       </c>
       <c r="I37" s="65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2.1831418958209712E-3</v>
       </c>
       <c r="J37" s="62">
+        <f t="shared" si="4"/>
+        <v>0.4092986878932186</v>
+      </c>
+      <c r="K37" s="57">
+        <f t="shared" si="5"/>
+        <v>2.6876426682012868E-2</v>
+      </c>
+      <c r="L37" s="57">
+        <f t="shared" si="6"/>
+        <v>0.10772265197703539</v>
+      </c>
+      <c r="M37" s="57">
+        <f t="shared" si="7"/>
+        <v>4.6459615394332252E-3</v>
+      </c>
+      <c r="N37" s="65">
+        <f t="shared" si="8"/>
+        <v>2.1831418958209712E-3</v>
+      </c>
+      <c r="O37" s="70">
+        <f t="shared" si="9"/>
+        <v>0.55072686998752096</v>
+      </c>
+      <c r="P37" s="48">
+        <f t="shared" si="10"/>
+        <v>2.4623499999999998</v>
+      </c>
+      <c r="Q37" s="41">
+        <f t="shared" si="1"/>
+        <v>0.42827193000000002</v>
+      </c>
+      <c r="R37" s="42">
         <f t="shared" si="2"/>
-        <v>0.4092986878932186</v>
-      </c>
-      <c r="K37" s="57">
-        <f t="shared" si="3"/>
-        <v>2.6876426682012868E-2</v>
-      </c>
-      <c r="L37" s="57">
-        <f t="shared" si="4"/>
-        <v>0.10772265197703539</v>
-      </c>
-      <c r="M37" s="57">
-        <f t="shared" si="5"/>
-        <v>4.6459615394332252E-3</v>
-      </c>
-      <c r="N37" s="65">
-        <f t="shared" si="6"/>
-        <v>2.1831418958209712E-3</v>
-      </c>
-      <c r="O37" s="70">
-        <f t="shared" si="7"/>
-        <v>0.55072686998752096</v>
-      </c>
-      <c r="P37" s="48">
-        <f t="shared" si="8"/>
-        <v>2.4623499999999998</v>
-      </c>
-      <c r="Q37" s="41">
-        <f>D37*$G$4</f>
-        <v>0.42827193000000002</v>
-      </c>
-      <c r="R37" s="42">
-        <f>O37-Q37</f>
         <v>0.12245493998752094</v>
       </c>
       <c r="S37" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.0468400000000004</v>
       </c>
       <c r="T37" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.0251063363264273E-2</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A38" s="87"/>
+      <c r="A38" s="95"/>
       <c r="B38" s="38" t="s">
         <v>162</v>
       </c>
@@ -6158,72 +6158,72 @@
         <v>0</v>
       </c>
       <c r="E38" s="62">
-        <f t="shared" ref="E38:I38" si="33">$D38*I70</f>
+        <f t="shared" ref="E38:I38" si="35">$D38*I70</f>
         <v>0</v>
       </c>
       <c r="F38" s="57">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G38" s="57">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H38" s="57">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I38" s="65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J38" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="48">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K38" s="57">
-        <f t="shared" si="3"/>
+      <c r="S38" s="42">
+        <f t="shared" si="11"/>
+        <v>3.4059300000000001</v>
+      </c>
+      <c r="T38" s="44">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L38" s="57">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="57">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="65">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="70">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="48">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="41">
-        <f>D38*$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="42">
-        <f>O38-Q38</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="42">
-        <f t="shared" si="9"/>
-        <v>3.4059300000000001</v>
-      </c>
-      <c r="T38" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:21" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="87"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="38" t="s">
         <v>163</v>
       </c>
@@ -6236,72 +6236,72 @@
         <v>0</v>
       </c>
       <c r="E39" s="62">
-        <f t="shared" ref="E39:I39" si="34">$D39*I71</f>
+        <f t="shared" ref="E39:I39" si="36">$D39*I71</f>
         <v>0</v>
       </c>
       <c r="F39" s="57">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G39" s="57">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H39" s="57">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I39" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J39" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="48">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K39" s="57">
-        <f t="shared" si="3"/>
+      <c r="S39" s="42">
+        <f t="shared" si="11"/>
+        <v>4.4069799999999999</v>
+      </c>
+      <c r="T39" s="44">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L39" s="57">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="57">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="65">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="70">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="48">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="41">
-        <f>D39*$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="42">
-        <f>O39-Q39</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="42">
-        <f t="shared" si="9"/>
-        <v>4.4069799999999999</v>
-      </c>
-      <c r="T39" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="1:21" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="87"/>
+      <c r="A40" s="95"/>
       <c r="B40" s="38" t="s">
         <v>164</v>
       </c>
@@ -6314,67 +6314,67 @@
         <v>2.8537223417400006</v>
       </c>
       <c r="E40" s="62">
-        <f t="shared" ref="E40:I40" si="35">$D40*I72</f>
+        <f t="shared" ref="E40:I40" si="37">$D40*I72</f>
         <v>2.6011743385239159</v>
       </c>
       <c r="F40" s="57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.19635386213330297</v>
       </c>
       <c r="G40" s="57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.1483324439008033E-2</v>
       </c>
       <c r="H40" s="57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.2724392876684056E-2</v>
       </c>
       <c r="I40" s="65">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.9864237670897053E-3</v>
       </c>
       <c r="J40" s="62">
+        <f t="shared" si="4"/>
+        <v>3.9017615077858739E-2</v>
+      </c>
+      <c r="K40" s="57">
+        <f t="shared" si="5"/>
+        <v>5.8906158639990885E-3</v>
+      </c>
+      <c r="L40" s="57">
+        <f t="shared" si="6"/>
+        <v>1.244499733170241E-2</v>
+      </c>
+      <c r="M40" s="57">
+        <f t="shared" si="7"/>
+        <v>7.6346357260104331E-3</v>
+      </c>
+      <c r="N40" s="65">
+        <f t="shared" si="8"/>
+        <v>1.9864237670897053E-3</v>
+      </c>
+      <c r="O40" s="70">
+        <f t="shared" si="9"/>
+        <v>6.6974287766660368E-2</v>
+      </c>
+      <c r="P40" s="48">
+        <f t="shared" si="10"/>
+        <v>0.94874999999999998</v>
+      </c>
+      <c r="Q40" s="41">
+        <f t="shared" si="1"/>
+        <v>4.2805835126100006E-2</v>
+      </c>
+      <c r="R40" s="42">
         <f t="shared" si="2"/>
-        <v>3.9017615077858739E-2</v>
-      </c>
-      <c r="K40" s="57">
-        <f t="shared" si="3"/>
-        <v>5.8906158639990885E-3</v>
-      </c>
-      <c r="L40" s="57">
-        <f t="shared" si="4"/>
-        <v>1.244499733170241E-2</v>
-      </c>
-      <c r="M40" s="57">
-        <f t="shared" si="5"/>
-        <v>7.6346357260104331E-3</v>
-      </c>
-      <c r="N40" s="65">
-        <f t="shared" si="6"/>
-        <v>1.9864237670897053E-3</v>
-      </c>
-      <c r="O40" s="70">
-        <f t="shared" si="7"/>
-        <v>6.6974287766660368E-2</v>
-      </c>
-      <c r="P40" s="48">
-        <f t="shared" si="8"/>
-        <v>0.94874999999999998</v>
-      </c>
-      <c r="Q40" s="41">
-        <f>D40*$G$4</f>
-        <v>4.2805835126100006E-2</v>
-      </c>
-      <c r="R40" s="42">
-        <f>O40-Q40</f>
         <v>2.4168452640560362E-2</v>
       </c>
       <c r="S40" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.5233203100999999</v>
       </c>
       <c r="T40" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-6.8595672585540215E-3</v>
       </c>
     </row>
@@ -6542,27 +6542,27 @@
         <v>125070.21</v>
       </c>
       <c r="I49" s="49">
-        <f t="shared" ref="I49:I72" si="36">C49/$H49</f>
+        <f t="shared" ref="I49:I72" si="38">C49/$H49</f>
         <v>0.95649579544161634</v>
       </c>
       <c r="J49" s="49">
-        <f t="shared" ref="J49:J72" si="37">D49/$H49</f>
+        <f t="shared" ref="J49:J72" si="39">D49/$H49</f>
         <v>2.8412521255061454E-2</v>
       </c>
       <c r="K49" s="49">
-        <f t="shared" ref="K49:K72" si="38">E49/$H49</f>
+        <f t="shared" ref="K49:K72" si="40">E49/$H49</f>
         <v>6.2370567699534529E-3</v>
       </c>
       <c r="L49" s="49">
-        <f t="shared" ref="L49:L72" si="39">F49/$H49</f>
+        <f t="shared" ref="L49:L72" si="41">F49/$H49</f>
         <v>7.1994761982089898E-3</v>
       </c>
       <c r="M49" s="49">
-        <f t="shared" ref="M49:M72" si="40">G49/$H49</f>
+        <f t="shared" ref="M49:M72" si="42">G49/$H49</f>
         <v>1.6551503351597474E-3</v>
       </c>
       <c r="N49" s="40">
-        <f t="shared" ref="N49:N72" si="41">SUM(I49:M49)</f>
+        <f t="shared" ref="N49:N72" si="43">SUM(I49:M49)</f>
         <v>1</v>
       </c>
       <c r="O49" s="42">
@@ -6609,27 +6609,27 @@
         <v>104119.18</v>
       </c>
       <c r="I50" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.94186613840024491</v>
       </c>
       <c r="J50" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.6194484051833682E-2</v>
       </c>
       <c r="K50" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3.8298419176947033E-3</v>
       </c>
       <c r="L50" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.5840981459900087E-2</v>
       </c>
       <c r="M50" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2.2685541703267352E-3</v>
       </c>
       <c r="N50" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="O50" s="42">
@@ -6676,27 +6676,27 @@
         <v>106507.03</v>
       </c>
       <c r="I51" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.95849616687274075</v>
       </c>
       <c r="J51" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.7699580018333062E-2</v>
       </c>
       <c r="K51" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.9970689258727807E-3</v>
       </c>
       <c r="L51" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2.9921968531091327E-3</v>
       </c>
       <c r="M51" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.8149873299443242E-3</v>
       </c>
       <c r="N51" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O51" s="42"/>
@@ -6741,27 +6741,27 @@
         <v>43701.47</v>
       </c>
       <c r="I52" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.95597745339001183</v>
       </c>
       <c r="J52" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.8930834592062919E-2</v>
       </c>
       <c r="K52" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.2991688837926961E-3</v>
       </c>
       <c r="L52" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.795686049004759E-3</v>
       </c>
       <c r="M52" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9968570851278002E-3</v>
       </c>
       <c r="N52" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="O52" s="42"/>
@@ -6806,27 +6806,27 @@
         <v>35399.379999999997</v>
       </c>
       <c r="I53" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.96576267719943132</v>
       </c>
       <c r="J53" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.7158210115544397E-2</v>
       </c>
       <c r="K53" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>6.0859822968650865E-3</v>
       </c>
       <c r="L53" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6.647291562733585E-3</v>
       </c>
       <c r="M53" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.3458388254257567E-3</v>
       </c>
       <c r="N53" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="O53" s="42">
@@ -6873,27 +6873,27 @@
         <v>30910.95</v>
       </c>
       <c r="I54" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.9604848767184444</v>
       </c>
       <c r="J54" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.2977617963860702E-2</v>
       </c>
       <c r="K54" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.1708601644401103E-3</v>
       </c>
       <c r="L54" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.9247612900929928E-3</v>
       </c>
       <c r="M54" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.4418838631617599E-3</v>
       </c>
       <c r="N54" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O54" s="42">
@@ -6940,27 +6940,27 @@
         <v>30274.86</v>
       </c>
       <c r="I55" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.94078783518734688</v>
       </c>
       <c r="J55" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.8271688126716358E-2</v>
       </c>
       <c r="K55" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.0167221252220493E-3</v>
       </c>
       <c r="L55" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.3783991073782008E-3</v>
       </c>
       <c r="M55" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.5453554533365307E-3</v>
       </c>
       <c r="N55" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O55" s="42">
@@ -7007,27 +7007,27 @@
         <v>27062.94</v>
       </c>
       <c r="I56" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.94635320478854112</v>
       </c>
       <c r="J56" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.6793489546959796E-2</v>
       </c>
       <c r="K56" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>6.1977745211717573E-3</v>
       </c>
       <c r="L56" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.5124875567842966E-3</v>
       </c>
       <c r="M56" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3.1430435865430735E-3</v>
       </c>
       <c r="N56" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O56" s="42"/>
@@ -7072,27 +7072,27 @@
         <v>22846.65</v>
       </c>
       <c r="I57" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.95531467414259863</v>
       </c>
       <c r="J57" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.8655404621684137E-2</v>
       </c>
       <c r="K57" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>6.0380843581006394E-3</v>
       </c>
       <c r="L57" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.1726051740627177E-3</v>
       </c>
       <c r="M57" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2.8192317035539123E-3</v>
       </c>
       <c r="N57" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O57" s="42">
@@ -7139,27 +7139,27 @@
         <v>19644.48</v>
       </c>
       <c r="I58" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.95100099366335977</v>
       </c>
       <c r="J58" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.318743993223542E-2</v>
       </c>
       <c r="K58" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.6580779944289698E-3</v>
       </c>
       <c r="L58" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.5665021420775703E-3</v>
       </c>
       <c r="M58" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2.5869862678981575E-3</v>
       </c>
       <c r="N58" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="O58" s="42">
@@ -7206,27 +7206,27 @@
         <v>13095.53</v>
       </c>
       <c r="I59" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.93877834650449421</v>
       </c>
       <c r="J59" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>4.438308338799575E-2</v>
       </c>
       <c r="K59" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>6.970317352562286E-3</v>
       </c>
       <c r="L59" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6.7389406919765747E-3</v>
       </c>
       <c r="M59" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3.1293120629711049E-3</v>
       </c>
       <c r="N59" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="O59" s="42"/>
@@ -7271,27 +7271,27 @@
         <v>15942.81</v>
       </c>
       <c r="I60" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.94101039904508688</v>
       </c>
       <c r="J60" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>4.1403617053706342E-2</v>
       </c>
       <c r="K60" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>8.6308498940901885E-3</v>
       </c>
       <c r="L60" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3.1217834246284066E-3</v>
       </c>
       <c r="M60" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.8333505824882817E-3</v>
       </c>
       <c r="N60" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="O60" s="42"/>
@@ -7335,27 +7335,27 @@
         <v>10041.532999999999</v>
       </c>
       <c r="I61" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.97645265917066648</v>
       </c>
       <c r="J61" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.172829885635988E-2</v>
       </c>
       <c r="K61" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.2990084282947635E-3</v>
       </c>
       <c r="L61" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.6351953431811662E-4</v>
       </c>
       <c r="M61" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.9565140103607686E-3</v>
       </c>
       <c r="N61" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O61" s="42"/>
@@ -7400,27 +7400,27 @@
         <v>3685.21729</v>
       </c>
       <c r="I62" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.97311187856713877</v>
       </c>
       <c r="J62" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.8241214753445381E-2</v>
       </c>
       <c r="K62" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.8920487698026621E-3</v>
       </c>
       <c r="L62" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2.0480881874946374E-3</v>
       </c>
       <c r="M62" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>7.0676972211861078E-4</v>
       </c>
       <c r="N62" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="O62" s="42">
@@ -7467,27 +7467,27 @@
         <v>3256.9820800000002</v>
       </c>
       <c r="I63" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.98320498281648516</v>
       </c>
       <c r="J63" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>7.7209942770087329E-3</v>
       </c>
       <c r="K63" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.4315404768822059E-3</v>
       </c>
       <c r="L63" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3.0098661150754625E-3</v>
       </c>
       <c r="M63" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.3261631454846693E-4</v>
       </c>
       <c r="N63" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O63" s="42"/>
@@ -7532,27 +7532,27 @@
         <v>6009.0791600000002</v>
       </c>
       <c r="I64" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.96715370446209925</v>
       </c>
       <c r="J64" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.1226203982974323E-2</v>
       </c>
       <c r="K64" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3.8173103381117716E-3</v>
       </c>
       <c r="L64" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.8299664669419996E-3</v>
       </c>
       <c r="M64" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.9728147498725909E-3</v>
       </c>
       <c r="N64" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="O64" s="42">
@@ -7599,27 +7599,27 @@
         <v>1096.74937</v>
       </c>
       <c r="I65" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.94892678169489175</v>
       </c>
       <c r="J65" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.6468030977761128E-2</v>
       </c>
       <c r="K65" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>6.8421466246203549E-3</v>
       </c>
       <c r="L65" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.4835858898191116E-3</v>
       </c>
       <c r="M65" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3.2794639307611364E-3</v>
       </c>
       <c r="N65" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000091178534</v>
       </c>
       <c r="O65" s="42"/>
@@ -7667,27 +7667,27 @@
         <v>2731.11501</v>
       </c>
       <c r="I66" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.94773925686857119</v>
       </c>
       <c r="J66" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.6146408935008562E-2</v>
       </c>
       <c r="K66" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>7.333484648821143E-3</v>
       </c>
       <c r="L66" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.4279845358837525E-3</v>
       </c>
       <c r="M66" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>7.3528650117154907E-3</v>
       </c>
       <c r="N66" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O66" s="42">
@@ -7737,27 +7737,27 @@
         <v>7010.6164500000004</v>
       </c>
       <c r="I67" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.95603431706779496</v>
       </c>
       <c r="J67" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.9619811821255747E-2</v>
       </c>
       <c r="K67" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>7.4325261368420742E-3</v>
       </c>
       <c r="L67" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.9477532036430261E-3</v>
       </c>
       <c r="M67" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.9655917704640654E-3</v>
       </c>
       <c r="N67" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="O67" s="42">
@@ -7804,27 +7804,27 @@
         <v>636.69928000000004</v>
       </c>
       <c r="I68" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.971848970835965</v>
       </c>
       <c r="J68" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.5008278319397501E-2</v>
       </c>
       <c r="K68" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.092708947307118E-2</v>
       </c>
       <c r="L68" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2.0555072718159819E-3</v>
       </c>
       <c r="M68" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.6015409975019917E-4</v>
       </c>
       <c r="N68" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O68" s="42">
@@ -7871,27 +7871,27 @@
         <v>717.46743000000004</v>
       </c>
       <c r="I69" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.95569814228361549</v>
       </c>
       <c r="J69" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.1377758848230922E-2</v>
       </c>
       <c r="K69" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.2576431518292056E-2</v>
       </c>
       <c r="L69" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2.7120394858899725E-4</v>
       </c>
       <c r="M69" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>7.6463401272445206E-5</v>
       </c>
       <c r="N69" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="O69" s="42">
@@ -7938,27 +7938,27 @@
         <v>541.16006000000004</v>
       </c>
       <c r="I70" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.95558175523892119</v>
       </c>
       <c r="J70" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.9889235728150375E-2</v>
       </c>
       <c r="K70" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.323988174589232E-3</v>
       </c>
       <c r="L70" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.2494233221867851E-2</v>
       </c>
       <c r="M70" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2.7107876364711762E-3</v>
       </c>
       <c r="N70" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="O70" s="42">
@@ -8002,27 +8002,27 @@
         <v>475.66300000000001</v>
       </c>
       <c r="I71" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.8616758293161334</v>
       </c>
       <c r="J71" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.12120595884060774</v>
       </c>
       <c r="K71" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.3096793317958303E-2</v>
       </c>
       <c r="L71" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2.387047132108236E-3</v>
       </c>
       <c r="M71" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.6343713931922391E-3</v>
       </c>
       <c r="N71" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="O71" s="42">
@@ -8066,27 +8066,27 @@
         <v>474.97822374839996</v>
       </c>
       <c r="I72" s="49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.91150225110474536</v>
       </c>
       <c r="J72" s="49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>6.8806225210256478E-2</v>
       </c>
       <c r="K72" s="49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.4536566445954375E-2</v>
       </c>
       <c r="L72" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.4588755852559957E-3</v>
       </c>
       <c r="M72" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.9608165378784643E-4</v>
       </c>
       <c r="N72" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O72" s="42"/>
